--- a/biology/Zoologie/Euploea_core/Euploea_core.xlsx
+++ b/biology/Zoologie/Euploea_core/Euploea_core.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea core ou Core[1] est un insecte lépidoptère  de la famille des  Nymphalidae, de la sous-famille des Danainae et du genre  Euploea.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea core ou Core est un insecte lépidoptère  de la famille des  Nymphalidae, de la sous-famille des Danainae et du genre  Euploea.
 C'est l'Euploea le plus commun, dans le sud de l'Asie comme en Australie.
 </t>
         </is>
@@ -512,14 +524,86 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euploea core (Pieter Cramer, 1780)
-Synonymes :Papilio core (Cramer, 1780), Euploea hemera (Fruhstorfer, 1910)[2].
-Noms vernaculaires
-Euploea core se nomme en anglais Common Indian Crow ou Australian Crow ou Oleander Butterfly  .
-Sous-espèces
-Euploea core core en Inde.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea core (Pieter Cramer, 1780)
+Synonymes :Papilio core (Cramer, 1780), Euploea hemera (Fruhstorfer, 1910).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euploea_core</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_core</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea core se nomme en anglais Common Indian Crow ou Australian Crow ou Oleander Butterfly  .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euploea_core</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_core</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euploea core core en Inde.
 Euploea core andamanensis (Atkinson, [874)
 Euploea core amymone (Godart, 1819) dans le sud de la Chine et à Hong Kong.
 Euploea core asela (Moore, 1877) à Ceylan.
@@ -534,40 +618,77 @@
 Euploea core prunosa (Moore, 1883) dans le sud de la Chine.
 Euploea core renellensis (Carpenter, 1953)
 Euploea core  scherzeri (C. Felder, 1862)
-Euploea core vermiculata (Butler, 1866) nord de l'Inde et de la Birmanie[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Euploea_core</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euploea_core</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Euploea core vermiculata (Butler, 1866) nord de l'Inde et de la Birmanie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Euploea_core</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_core</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand papillon de 8 à 9 cm d'envergure, marron plus ou moins foncé aux ailes bordées d'une ligne submarginale de points blancs doublée d'une ligne de taches ovales blanches plus ou moins importante.
 Le revers est identique.
-Chenille
-La chenille est très colorée, orange puis annelée d'orange noir et blanc et elle est munie de paires de longues cornes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euploea_core</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_core</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est très colorée, orange puis annelée d'orange noir et blanc et elle est munie de paires de longues cornes
 			œuf
 			jeune chenille
 			chenille
@@ -577,102 +698,213 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Euploea_core</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euploea_core</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euploea_core</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_core</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'a pas de prédateur car, dès le stade de chenille, il se nourrit sur des plantes qui le rendent toxique.
 Il est imité par de nombreuses autres espèces de papillons, notamment Papilio clytia, Papilio dravidarum, Papilio castor, Hypolimnas bolina et Elymnias singala.
-Euploea core vole toute l'année dans certains lieux comme le nord de l'Australie[3]. Il vit plusieurs mois et n'a de diapause que s'il lui faut attendre des pluies nécessaires à la croissance des plantes hôte de sa chenille[4],[5]. Ceux qui hibernent en Australie le font dans des vallées entre Brisbane et Townsville[6].
-C'est un migrateur. Dans le sud de l'Inde, Euploea core effectue sa migration avec deux autres espèces, Euploea sylvester et Tirumala septentrionis, sur 350 à 500 km entre les Ghâts occidentaux et les Ghâts orientaux[7]. Ses migrations sont en étude à Taïwan[8].
-Plantes hôtes
-Ses plantes hôtes sont diverses: Asclepias spp., Ficus benjamina, F. coronata, F. lyrata, F. obliqua, F. platypoda, F. pumila, Adenium obesum, A. multiflorum, Carissa ovata, Ichnocarpus frutescens, Nerium indicum, laurier-rose N. oleander, Parsonsia eucalyptophylla, P. straminea, Trachelospermum spp., Plumeria acutifolia, Brachystelma glabriflorum, Ceropegia cumingiana, Cryptostegia madagascariensis, C. grandiflora, Cynanchum carnosum, Gunnessia pepo, Gymnanthera fruticosa, G. nitida, Gymnema micradenium, Hoya archboldiana, H. australis, H. carnosa, H. cumingiana, H. macgillivrayi, H. oligotricha, H. sana, Marsdenia australis, M. coronata, M. glandulifera, M. hemiptera, M. microlepis, M. rostrata, M. suaveolens, M. viridiflora, Sarcostemma australe, Secamone elliptica, Stephanotis spp., Tylophora spp.[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Euploea_core</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euploea_core</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Euploea core vole toute l'année dans certains lieux comme le nord de l'Australie. Il vit plusieurs mois et n'a de diapause que s'il lui faut attendre des pluies nécessaires à la croissance des plantes hôte de sa chenille,. Ceux qui hibernent en Australie le font dans des vallées entre Brisbane et Townsville.
+C'est un migrateur. Dans le sud de l'Inde, Euploea core effectue sa migration avec deux autres espèces, Euploea sylvester et Tirumala septentrionis, sur 350 à 500 km entre les Ghâts occidentaux et les Ghâts orientaux. Ses migrations sont en étude à Taïwan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euploea_core</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_core</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses: Asclepias spp., Ficus benjamina, F. coronata, F. lyrata, F. obliqua, F. platypoda, F. pumila, Adenium obesum, A. multiflorum, Carissa ovata, Ichnocarpus frutescens, Nerium indicum, laurier-rose N. oleander, Parsonsia eucalyptophylla, P. straminea, Trachelospermum spp., Plumeria acutifolia, Brachystelma glabriflorum, Ceropegia cumingiana, Cryptostegia madagascariensis, C. grandiflora, Cynanchum carnosum, Gunnessia pepo, Gymnanthera fruticosa, G. nitida, Gymnema micradenium, Hoya archboldiana, H. australis, H. carnosa, H. cumingiana, H. macgillivrayi, H. oligotricha, H. sana, Marsdenia australis, M. coronata, M. glandulifera, M. hemiptera, M. microlepis, M. rostrata, M. suaveolens, M. viridiflora, Sarcostemma australe, Secamone elliptica, Stephanotis spp., Tylophora spp..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euploea_core</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_core</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea core est présent du sud de l'Asie à l'Australie, en Inde, sud de la Chine, Hong Kong, Birmanie, Indochine, Malaisie, à Ceylan, Sumatra, à Java, Bali, en Nouvelle-Calédonie et d'autres îles[2].
-Biotope
-Divers mais fonction de la présence des plantes hôtes de la chenille.
-Protection
-Pas de statut de protection particulier.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Euploea_core</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euploea_core</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea core est présent du sud de l'Asie à l'Australie, en Inde, sud de la Chine, Hong Kong, Birmanie, Indochine, Malaisie, à Ceylan, Sumatra, à Java, Bali, en Nouvelle-Calédonie et d'autres îles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Euploea_core</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_core</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Divers mais fonction de la présence des plantes hôtes de la chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Euploea_core</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_core</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Euploea_core</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_core</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Euploea core corina figure sur une émission de 1982 des Cocos island d'une valeur de 40c.
 </t>
